--- a/data/example/example.xlsx
+++ b/data/example/example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sheeanspoel/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sheeanspoel/src/digital-atlas/data/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79BE0914-4204-3443-B878-C413943B19D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E4AAC7-05A2-0342-8645-F89B9408726D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40260" yWindow="9980" windowWidth="27640" windowHeight="18360" activeTab="3" xr2:uid="{1C1D0FEA-03FE-E94B-B41C-B7A8262305BD}"/>
+    <workbookView xWindow="40260" yWindow="9980" windowWidth="27640" windowHeight="18360" xr2:uid="{1C1D0FEA-03FE-E94B-B41C-B7A8262305BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Authors" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="76">
   <si>
     <t>Author</t>
   </si>
@@ -388,6 +388,15 @@
   </si>
   <si>
     <t>Frantz Fanon at a press conference of writers in Tunis, 1959.</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>blue</t>
   </si>
 </sst>
 </file>
@@ -797,10 +806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FCB2569-AA2C-D241-8878-EA9DB57A158E}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -813,7 +822,7 @@
     <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -835,8 +844,11 @@
       <c r="G1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -849,8 +861,11 @@
       <c r="D2" s="1">
         <v>9303</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -868,6 +883,9 @@
       </c>
       <c r="F3" s="1">
         <v>41680</v>
+      </c>
+      <c r="H3" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1094,7 +1112,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C110C684-92B5-2045-8BA9-A414F09749F2}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>

--- a/data/example/example.xlsx
+++ b/data/example/example.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Authors" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="77">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -400,6 +400,12 @@
   </si>
   <si>
     <t xml:space="preserve">Frantz Fanon at a press conference of writers in Tunis, 1959.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stuart Hall.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frantz Fanon.png</t>
   </si>
 </sst>
 </file>
@@ -410,7 +416,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -469,12 +475,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -543,7 +543,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -627,11 +627,11 @@
   </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34"/>
@@ -729,7 +729,7 @@
       <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="53.5"/>
@@ -817,7 +817,7 @@
       <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.83"/>
@@ -958,11 +958,11 @@
   </sheetPr>
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.16"/>
@@ -1133,7 +1133,7 @@
       <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.66"/>
   </cols>
@@ -1253,13 +1253,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+      <selection pane="topLeft" activeCell="A33" activeCellId="0" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13"/>
@@ -1343,6 +1343,40 @@
         <v>74</v>
       </c>
     </row>
+    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/data/example/example.xlsx
+++ b/data/example/example.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="76">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -54,9 +54,6 @@
     <t xml:space="preserve">Frantz Fanon</t>
   </si>
   <si>
-    <t xml:space="preserve">Frantz Fanon at press conference</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fort-de-France, Martinique</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
   </si>
   <si>
     <t xml:space="preserve">Stuart Hall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stuart Hall at desk, Stuart Hall standing</t>
   </si>
   <si>
     <t xml:space="preserve">Kingston, Jamaica</t>
@@ -385,6 +379,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.flickr.com/photos/the-open-university/15587398348/in/album-72157648758042767/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frantz Fanon at press conference</t>
   </si>
   <si>
     <t xml:space="preserve">frantzfanon.jpg</t>
@@ -628,10 +625,10 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34"/>
@@ -672,39 +669,39 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>10</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>9303</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>12</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>14</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>11722</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>41680</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -729,7 +726,7 @@
       <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="53.5"/>
@@ -737,28 +734,28 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>21</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I1" s="0" t="s">
         <v>6</v>
@@ -769,30 +766,30 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>1948</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>1957</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -817,7 +814,7 @@
       <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.83"/>
@@ -827,114 +824,114 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J1" s="0" t="s">
         <v>6</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>1969</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>1970</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>1986</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>2015</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -962,7 +959,7 @@
       <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.16"/>
@@ -973,28 +970,28 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>21</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I1" s="0" t="s">
         <v>6</v>
@@ -1005,19 +1002,19 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>1942</v>
       </c>
       <c r="G2" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1025,19 +1022,19 @@
         <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>1943</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1045,19 +1042,19 @@
         <v>8</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>1945</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1065,41 +1062,41 @@
         <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>1945</v>
       </c>
       <c r="G5" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="0" t="s">
         <v>53</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1951</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>1957</v>
@@ -1108,7 +1105,7 @@
         <v>1959</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1133,7 +1130,7 @@
       <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.66"/>
   </cols>
@@ -1143,15 +1140,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>14.60426</v>
@@ -1162,7 +1159,7 @@
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>15.414999</v>
@@ -1173,7 +1170,7 @@
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>48.08062</v>
@@ -1184,7 +1181,7 @@
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>48.856613</v>
@@ -1195,7 +1192,7 @@
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>51.507351</v>
@@ -1206,7 +1203,7 @@
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>17.9712148</v>
@@ -1217,7 +1214,7 @@
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>51.3936101</v>
@@ -1228,7 +1225,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>46.1390475</v>
@@ -1259,7 +1256,7 @@
       <selection pane="topLeft" activeCell="A33" activeCellId="0" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13"/>
@@ -1274,16 +1271,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>6</v>
@@ -1291,73 +1288,73 @@
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="E2" s="0" t="s">
         <v>64</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>67</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="D4" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="E4" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="F4" s="0" t="s">
         <v>73</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1365,16 +1362,16 @@
         <v>8</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
